--- a/Data/model_outputs_baseline/number_of_dwellings/s_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_AB.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>19986.1206864983</v>
+        <v>18251.25748635034</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>20009.48161208792</v>
+        <v>18272.59060420466</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>20033.17821593027</v>
+        <v>18294.23026229852</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>20057.21528891929</v>
+        <v>18316.18083566003</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>20081.59768942264</v>
+        <v>18338.446760934</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>20106.33034420781</v>
+        <v>18361.03253722774</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>20131.41824938023</v>
+        <v>18383.94272696778</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>20156.86647133368</v>
+        <v>18407.18195676769</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>20182.68014771314</v>
+        <v>18430.7549183074</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>20208.86448839003</v>
+        <v>18454.66636922379</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>20235.42477645022</v>
+        <v>18478.92113401292</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>20262.36636919492</v>
+        <v>18503.52410494404</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>20289.69469915441</v>
+        <v>18528.48024298536</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>20317.41527511505</v>
+        <v>18553.79457874184</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>20345.53368315946</v>
+        <v>18579.47221340515</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>20374.05558772025</v>
+        <v>18605.5183197159</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>20402.98673264725</v>
+        <v>18631.93814293825</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>20432.33294228863</v>
+        <v>18658.73700184712</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>20462.10012258577</v>
+        <v>18685.92028972814</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>20492.29426218242</v>
+        <v>18713.49347539039</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>20522.92143354791</v>
+        <v>18741.46210419227</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>20553.98779411496</v>
+        <v>18769.83179908039</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>20585.49958743191</v>
+        <v>18798.60826164187</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>20617.46314432984</v>
+        <v>18827.79727317015</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>20649.88488410451</v>
+        <v>18857.4046957443</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>20682.77131571352</v>
+        <v>18887.43647332226</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>20716.12903898857</v>
+        <v>18917.89863284793</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>20749.96474586336</v>
+        <v>18948.7972853724</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>20784.28522161696</v>
+        <v>18980.13862718949</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>20819.09734613313</v>
+        <v>19011.92894098564</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>20854.40809517552</v>
+        <v>19044.17459700451</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>20890.22454167911</v>
+        <v>19076.8820542263</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>20926.55385705799</v>
+        <v>19110.05786156198</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>20963.40331252973</v>
+        <v>19143.7086590627</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>21000.78028045642</v>
+        <v>19177.84117914451</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>21038.69223570278</v>
+        <v>19212.46224782843</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>21077.14675701127</v>
+        <v>19247.57878599631</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>21116.15152839456</v>
+        <v>19283.19781066244</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>21155.71434054562</v>
+        <v>19319.32643626115</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>21195.84309226551</v>
+        <v>19355.97187595072</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>21236.545791909</v>
+        <v>19393.14144293352</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>21277.83055884851</v>
+        <v>19430.84255179282</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>21319.70562495628</v>
+        <v>19469.0827198464</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>21362.17933610519</v>
+        <v>19507.869568517</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>21405.26015368835</v>
+        <v>19547.21082472005</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>21448.95665615764</v>
+        <v>19587.11432226867</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>21493.27754058161</v>
+        <v>19627.58800329629</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>21538.23162422271</v>
+        <v>19668.63991969699</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>21583.8278461342</v>
+        <v>19710.27823458386</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>21630.07526877708</v>
+        <v>19752.51122376548</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>21676.98307965712</v>
+        <v>19795.34727724087</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>21724.56059298221</v>
+        <v>19838.79490071305</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>21772.81725134039</v>
+        <v>19882.86271712132</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>21821.7626273988</v>
+        <v>19927.55946819276</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>21871.40642562365</v>
+        <v>19972.89401601294</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>21921.75848402156</v>
+        <v>20018.8753446161</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>21972.82877590268</v>
+        <v>20065.51256159513</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>22024.62741166557</v>
+        <v>20112.81489973166</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>22077.16464060416</v>
+        <v>20160.79171864606</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>22130.45085273733</v>
+        <v>20209.45250646826</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>22184.49658066106</v>
+        <v>20258.80688152914</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>22239.31250142353</v>
+        <v>20308.86459407278</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>22294.90943842361</v>
+        <v>20359.63552799026</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>22351.29836333272</v>
+        <v>20411.12970257461</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>22408.49039804073</v>
+        <v>20463.35727429789</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>22466.49681662581</v>
+        <v>20516.32853860995</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>22525.32904734881</v>
+        <v>20570.05393175979</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>22584.99867467249</v>
+        <v>20624.54403263937</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>22645.51744130563</v>
+        <v>20679.80956465049</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>22706.89725027271</v>
+        <v>20735.86139759463</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>22769.15016700922</v>
+        <v>20792.71054958649</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>22832.28842148311</v>
+        <v>20850.36818899124</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>22896.32441034262</v>
+        <v>20908.84563638589</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>22961.27069909081</v>
+        <v>20968.15436654516</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>23027.14002428737</v>
+        <v>21028.30601045207</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>23093.94529577779</v>
+        <v>21089.31235733361</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>23161.69959895048</v>
+        <v>21151.18535672206</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>23230.41619702214</v>
+        <v>21213.93712054178</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>23300.10853335174</v>
+        <v>21277.57992522256</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>23370.7902337837</v>
+        <v>21342.12621383915</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>23442.47510902035</v>
+        <v>21407.58859827801</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>23515.17715702451</v>
+        <v>21473.97986143119</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>23588.91056545224</v>
+        <v>21541.31295941804</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>23663.68971411651</v>
+        <v>21609.60102383485</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>23739.52917748214</v>
+        <v>21678.85736403337</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>23816.44372719236</v>
+        <v>21749.09546942798</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>23894.44833462762</v>
+        <v>21820.32901183247</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>23973.55817349736</v>
+        <v>21892.57184782667</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>24053.78862246462</v>
+        <v>21965.83802115346</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>24135.15526780477</v>
+        <v>22040.1417651465</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>24217.67390609841</v>
+        <v>22115.49750518952</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>24301.36054695916</v>
+        <v>22191.91986120727</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>24386.23141579695</v>
+        <v>22269.42365018896</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>24472.30295661742</v>
+        <v>22348.02388874462</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>24559.59183485785</v>
+        <v>22427.73579569499</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>24648.11494026065</v>
+        <v>22508.57479469539</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>24737.88938978456</v>
+        <v>22590.5565168944</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>24828.9325305548</v>
+        <v>22673.69680362778</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>24921.26194285232</v>
+        <v>22758.01170914839</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>25014.89544314329</v>
+        <v>22843.51750339256</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>25109.85108714939</v>
+        <v>22930.23067478396</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>25206.14717295975</v>
+        <v>23018.16793307541</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>25303.80224418518</v>
+        <v>23107.34621222926</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>25402.83509315577</v>
+        <v>23197.78267333749</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>25503.26476416252</v>
+        <v>23289.49470758193</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>25605.11055674402</v>
+        <v>23382.49993923563</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>25708.39202901897</v>
+        <v>23476.8162287061</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>25813.12900106554</v>
+        <v>23572.46167562136</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>25919.34155834866</v>
+        <v>23669.45462195974</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>26027.05005519608</v>
+        <v>23767.81365522417</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>26136.27511832451</v>
+        <v>23867.55761166223</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>26247.03765041652</v>
+        <v>23968.7055795326</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>26359.35883374985</v>
+        <v>24071.27690241935</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>26473.26013388</v>
+        <v>24175.29118259477</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>26588.76330337725</v>
+        <v>24280.76828443214</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>26705.89038561964</v>
+        <v>24387.72833786938</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>26824.66371864321</v>
+        <v>24496.19174192506</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>26945.1059390505</v>
+        <v>24606.17916826769</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>27067.23998597918</v>
+        <v>24717.71156483984</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>27191.08910513209</v>
+        <v>24830.81015953833</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>27316.67685287015</v>
+        <v>24945.4964639519</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>27444.02710036992</v>
+        <v>25061.79227715786</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>27573.16403784727</v>
+        <v>25179.71968957913</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>27704.11217884901</v>
+        <v>25299.30108690332</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>27836.89636461412</v>
+        <v>25420.55915406549</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>27971.54176850672</v>
+        <v>25543.51687929616</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>28108.0739005223</v>
+        <v>25668.19755823653</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>28246.5186118695</v>
+        <v>25794.62479812246</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>28386.90209962953</v>
+        <v>25922.8225220395</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>28529.2509114951</v>
+        <v>26052.81497325038</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>28673.59195059141</v>
+        <v>26184.62671959763</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>28819.95248038149</v>
+        <v>26318.28265798301</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>28968.36012965799</v>
+        <v>26453.80801892607</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>29118.84289762455</v>
+        <v>26591.22837120444</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>29271.4291590686</v>
+        <v>26730.56962657754</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>29426.147669629</v>
+        <v>26871.85804459705</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>29583.02757116094</v>
+        <v>27015.1202375061</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>29742.09839720116</v>
+        <v>27160.38317523007</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>29903.39007853653</v>
+        <v>27307.67419046179</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>30066.93294887915</v>
+        <v>27457.02098384408</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>30232.75775065133</v>
+        <v>27608.45162925251</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>30400.89564088376</v>
+        <v>27761.99457918161</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>30571.37819723046</v>
+        <v>27917.6786702377</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>30744.23742410437</v>
+        <v>28075.53312874192</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>30919.50575893702</v>
+        <v>28235.5875764465</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>31097.2160785669</v>
+        <v>28397.87203636861</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>31277.40170575991</v>
+        <v>28562.41693874483</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>31460.09641586681</v>
+        <v>28729.25312711067</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>31645.33444362193</v>
+        <v>28898.41186450919</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>31833.15049008761</v>
+        <v>29069.92483983256</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>32023.57972974945</v>
+        <v>29243.82417430151</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>32216.65781776722</v>
+        <v>29420.14242808676</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>32412.42089738669</v>
+        <v>29598.91260707751</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>32610.90560751779</v>
+        <v>29780.16816980176</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>32812.14909048441</v>
+        <v>29963.9430345035</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>33016.18899995231</v>
+        <v>30150.27158638231</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>33223.0635090403</v>
+        <v>30339.18868500055</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>33432.81131862168</v>
+        <v>30530.72967186419</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>33645.47166582197</v>
+        <v>30724.93037818291</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>33861.08433271985</v>
+        <v>30921.82713281576</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>34079.68965525825</v>
+        <v>31121.45677040872</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>34301.32853237264</v>
+        <v>31323.8566397307</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>34526.04243534459</v>
+        <v>31529.06461221503</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>34753.87341738732</v>
+        <v>31737.11909071315</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>34984.86412347242</v>
+        <v>31948.05901846818</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>35219.05780040537</v>
+        <v>32161.92388831588</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>35456.49830715867</v>
+        <v>32378.75375212089</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>35697.23012547149</v>
+        <v>32598.58923045625</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>35941.29837072529</v>
+        <v>32821.47152253497</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>36188.74880310464</v>
+        <v>33047.4424164021</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>36439.62783905354</v>
+        <v>33276.54429939653</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>36693.98256303709</v>
+        <v>33508.82016889179</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>36951.86073961956</v>
+        <v>33744.3136433256</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>37213.3108258694</v>
+        <v>33983.06897352822</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>37478.38198410286</v>
+        <v>34225.13105435976</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>37747.1240949778</v>
+        <v>34470.54543666745</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>38019.58777094975</v>
+        <v>34719.35833957366</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>38295.82437010295</v>
+        <v>34971.61666310638</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>38575.88601036898</v>
+        <v>35227.36800118362</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>38859.82558414659</v>
+        <v>35486.66065496413</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>39147.69677333639</v>
+        <v>35749.54364657713</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>39439.5540648047</v>
+        <v>36016.06673324373</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>39735.45276629083</v>
+        <v>36286.28042180353</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>40035.44902277362</v>
+        <v>36560.23598366039</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>40339.5998333121</v>
+        <v>36837.98547016129</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>40647.96306837664</v>
+        <v>37119.58172842312</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>40960.59748768731</v>
+        <v>37405.07841762249</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>41277.56275857583</v>
+        <v>37694.530025764</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>41598.91947488948</v>
+        <v>37987.99188694303</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>41924.72917645429</v>
+        <v>38285.52019911955</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>42255.05436911617</v>
+        <v>38587.17204241963</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>42589.95854537949</v>
+        <v>38893.00539798249</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>42929.50620566208</v>
+        <v>39203.07916737047</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>43273.76288018691</v>
+        <v>39517.45319256046</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>43622.79515153139</v>
+        <v>39836.18827653587</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>43976.67067785496</v>
+        <v>40159.34620449797</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>44335.4582168271</v>
+        <v>40486.98976571683</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>44699.22765027765</v>
+        <v>40819.182776042</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>45068.05000959246</v>
+        <v>41155.99010109359</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>45441.99750187745</v>
+        <v>41497.47768015534</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>45821.14353691529</v>
+        <v>41843.7125507913</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>46205.56275493862</v>
+        <v>42194.76287420825</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>46595.33105524497</v>
+        <v>42550.69796138672</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>46990.52562567909</v>
+        <v>42911.58830000422</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>47391.22497300791</v>
+        <v>43277.50558217352</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>47797.50895421545</v>
+        <v>43648.52273302097</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>48209.45880874385</v>
+        <v>44024.71394012911</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>48627.15719170871</v>
+        <v>44406.15468386853</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>49050.68820811585</v>
+        <v>44792.92176864474</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>49480.13744810853</v>
+        <v>45185.09335508567</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>49915.59202327354</v>
+        <v>45582.74899319631</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>50357.14060403538</v>
+        <v>45985.96965650698</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>50804.87345816812</v>
+        <v>46394.83777724217</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>51258.88249045495</v>
+        <v>46809.43728253755</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>51719.26128352548</v>
+        <v>47229.85363173241</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>52186.10513990138</v>
+        <v>47656.17385476564</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>52659.51112528107</v>
+        <v>48088.48659170316</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>53139.57811309443</v>
+        <v>48526.88213342516</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>53626.40683035852</v>
+        <v>48971.45246350121</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>54120.09990486593</v>
+        <v>49422.29130128277</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>54620.76191373607</v>
+        <v>49879.49414623984</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>55128.49943336171</v>
+        <v>50343.15832357209</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>55643.42109078086</v>
+        <v>50813.38303112148</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>56165.63761650622</v>
+        <v>51290.26938761584</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>56695.26189884094</v>
+        <v>51773.92048226997</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>57232.40903971353</v>
+        <v>52264.4414257738</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>57777.19641205984</v>
+        <v>52761.93940269344</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>58329.74371878273</v>
+        <v>53266.52372531297</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>58890.17305331775</v>
+        <v>53778.30588894278</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>59458.6089618336</v>
+        <v>54297.39962872086</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>60035.17850709381</v>
+        <v>54823.920977931</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>60620.01133400644</v>
+        <v>55357.98832786266</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>61213.23973688739</v>
+        <v>55899.7224892355</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>61814.99872846033</v>
+        <v>56449.24675520993</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>62425.42611061684</v>
+        <v>57006.686966005</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>63044.66254695701</v>
+        <v>57572.17157514226</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>63672.85163713022</v>
+        <v>58145.83171733347</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>64310.1399929932</v>
+        <v>58727.80127802795</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>64956.67731660103</v>
+        <v>59318.2169646336</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>65612.61648004317</v>
+        <v>59917.21837942297</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>66278.11360713608</v>
+        <v>60524.94809413466</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>66953.32815697926</v>
+        <v>61141.5517262764</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>67638.42300937956</v>
+        <v>61767.17801713424</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>68333.5645521455</v>
+        <v>62401.97891148942</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>69038.92277024902</v>
+        <v>63046.10963904067</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>69754.67133684957</v>
+        <v>63699.72879752686</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>70480.98770616979</v>
+        <v>64362.99843754108</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>71218.05320820925</v>
+        <v>65036.08414902266</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>71966.05314527682</v>
+        <v>65719.15514941028</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>72725.17689031811</v>
+        <v>66412.38437343427</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>73495.61798700821</v>
+        <v>67115.94856452095</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>74277.57425157525</v>
+        <v>67830.02836777757</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>75071.24787631363</v>
+        <v>68554.80842452019</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>75876.84553473871</v>
+        <v>69290.47746830064</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>76694.57848832945</v>
+        <v>70037.22842238354</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>77524.66269479712</v>
+        <v>70795.25849861687</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>78367.3189178101</v>
+        <v>71564.76929763224</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>79222.77283809782</v>
+        <v>72345.96691030485</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>80091.25516584794</v>
+        <v>73139.06202039393</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>80973.00175430057</v>
+        <v>73944.27000827684</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>81868.25371443627</v>
+        <v>74761.81105568152</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>82777.25753064168</v>
+        <v>75591.91025131222</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>83700.26517722788</v>
+        <v>76434.79769725338</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>84637.53423566621</v>
+        <v>77290.70861602933</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>85589.32801239152</v>
+        <v>78159.8834581814</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>86555.91565701447</v>
+        <v>79042.56801021934</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>87537.57228076985</v>
+        <v>79939.0135027878</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>88534.5790750141</v>
+        <v>80849.47671887785</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>89547.22342957363</v>
+        <v>81774.22010190216</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>90575.79905072847</v>
+        <v>82713.51186343754</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>91620.60607860427</v>
+        <v>83667.62609042667</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>92681.95120372635</v>
+        <v>84636.84285161496</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>93760.14778247714</v>
+        <v>85621.44830298584</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>94855.51595117946</v>
+        <v>86621.73479194133</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>95968.38273851175</v>
+        <v>87638.00095995914</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>97099.08217594458</v>
+        <v>88670.55184344295</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>98247.95540586821</v>
+        <v>89719.69897246416</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>99415.35078706367</v>
+        <v>90785.76046707768</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>100601.6239971498</v>
+        <v>91869.06113087627</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>101807.1381316205</v>
+        <v>92969.93254143081</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>103032.2637990643</v>
+        <v>94088.71313724495</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>104277.3792121414</v>
+        <v>95225.74830083454</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>105542.8702738692</v>
+        <v>96381.39043752351</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>106829.1306587485</v>
+        <v>97555.99904952809</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>108136.5618882418</v>
+        <v>98749.94080488331</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>109465.5734000918</v>
+        <v>99963.58960074408</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>110816.5826109478</v>
+        <v>101197.3266205762</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>112190.0149717481</v>
+        <v>102451.5403847303</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>113586.3040152803</v>
+        <v>103726.6267938748</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>115005.8913953259</v>
+        <v>105022.9891647419</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>116449.2269167688</v>
+        <v>106341.038257623</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>117916.7685560302</v>
+        <v>107681.1922950293</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>119408.9824711714</v>
+        <v>109043.8769709181</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>120926.3430009823</v>
+        <v>110429.5254498605</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>122469.332652361</v>
+        <v>111838.5783555157</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>124038.4420752632</v>
+        <v>113271.4837477559</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>125634.1700244893</v>
+        <v>114728.6970877698</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>127257.023307555</v>
+        <v>116210.6811904581</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>128907.5167178795</v>
+        <v>117717.9061634218</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>130586.1729525097</v>
+        <v>119250.8493318276</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>132293.522513584</v>
+        <v>120809.9951484255</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>134030.1035927334</v>
+        <v>122395.8350879838</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>135796.4619376032</v>
+        <v>124008.8675253972</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>137593.1506996738</v>
+        <v>125649.5975967179</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>139420.730262555</v>
+        <v>127318.5370423538</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>141279.768049925</v>
+        <v>129016.2040316794</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>143170.8383122839</v>
+        <v>130743.1229682996</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>145094.5218916977</v>
+        <v>132499.8242752154</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>147051.405963715</v>
+        <v>134286.8441591417</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>149042.0837556417</v>
+        <v>136104.7243532385</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>151067.1542403832</v>
+        <v>137954.0118375273</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>153127.2218050716</v>
+        <v>139835.2585362829</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>155222.8958937172</v>
+        <v>141749.0209917044</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>157354.7906231544</v>
+        <v>143695.8600131978</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>159523.5243715751</v>
+        <v>145676.3403016263</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>161729.719338979</v>
+        <v>147691.0300479151</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>163974.0010789114</v>
+        <v>149740.5005054359</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>166256.9980008993</v>
+        <v>151825.3255356327</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>168579.3408430463</v>
+        <v>153946.0811263983</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>170941.6621143061</v>
+        <v>156103.3448827596</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>173344.5955060058</v>
+        <v>158297.6954894828</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>175788.7752722649</v>
+        <v>160529.7121452742</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>178274.8355790181</v>
+        <v>162799.9739683102</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>180803.4098214372</v>
+        <v>165109.0593729091</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>183375.1299096211</v>
+        <v>167457.5454172255</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>185990.6255225172</v>
+        <v>169846.0071219341</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>188650.5233301329</v>
+        <v>172275.0167599559</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>191355.4461841921</v>
+        <v>174745.1431173685</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>194106.0122775039</v>
+        <v>177256.9507257441</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>196902.8342724181</v>
+        <v>179810.9990662582</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>199746.5183988639</v>
+        <v>182407.8417460222</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>202637.6635225888</v>
+        <v>185048.0256472009</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>205576.8601843427</v>
+        <v>187732.0900496005</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>208564.6896108886</v>
+        <v>190460.5657275254</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>211601.7226988543</v>
+        <v>193233.9740218361</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>214688.5189725851</v>
+        <v>196052.8258882629</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>217825.6255172993</v>
+        <v>198917.6209231679</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>221013.5758889967</v>
+        <v>201828.8463680769</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>224252.8890027257</v>
+        <v>204786.9760944484</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>227544.0680009599</v>
+        <v>207792.4695702795</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>230887.599103993</v>
+        <v>210845.7708102896</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>234283.9504444144</v>
+        <v>213947.3073115686</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>237733.5708878818</v>
+        <v>217097.4889767096</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>241236.8888425595</v>
+        <v>220296.7070265922</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>244794.3110597382</v>
+        <v>223545.3329051126</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>248406.2214283089</v>
+        <v>226843.7171783016</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>252072.9797658949</v>
+        <v>230192.1884303897</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>255794.9206095968</v>
+        <v>233591.0521595204</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>259572.3520094275</v>
+        <v>237040.5896759185</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>263405.5543276494</v>
+        <v>240541.0570054491</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>267294.7790473362</v>
+        <v>244092.6838016004</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>271240.2475935967</v>
+        <v>247695.6722690294</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>275242.1501709913</v>
+        <v>251350.196101894</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>279300.6446207636</v>
+        <v>255056.3994402817</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>283415.8553015815</v>
+        <v>258814.3958481052</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>287587.8719975458</v>
+        <v>262624.2673159002</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>291816.7488572721</v>
+        <v>267099.5690348133</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>296102.5033678826</v>
+        <v>271634.9515217181</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>300445.1153677622</v>
+        <v>276230.4155229523</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>304844.5261019325</v>
+        <v>280885.9224073227</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>309300.637323882</v>
+        <v>285601.393253175</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>313813.3104476448</v>
+        <v>290376.7079879841</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>318382.3657538847</v>
+        <v>295211.7045843272</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>323007.5816536442</v>
+        <v>300106.1783160153</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>327688.6940133413</v>
+        <v>305059.8810780569</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>332425.395544482</v>
+        <v>310072.5207740102</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>337217.3352614117</v>
+        <v>315143.7607741207</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>342064.1180102961</v>
+        <v>320273.2194474921</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>346965.3040723305</v>
+        <v>325460.4697713346</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>351920.4088440005</v>
+        <v>330705.039020139</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>356928.9025970025</v>
+        <v>336006.4085373938</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>361990.2103202022</v>
+        <v>340414.4807061793</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>367103.7116457713</v>
+        <v>344867.8900095323</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>372268.7408613825</v>
+        <v>349366.0410599806</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>377484.5870100588</v>
+        <v>353908.2982776677</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>382750.4940789983</v>
+        <v>358493.9860232935</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>388065.6612783833</v>
+        <v>363122.3888074891</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>393429.2434108783</v>
+        <v>367792.7515770826</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>398840.3513321949</v>
+        <v>372504.280078436</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>404298.0525027767</v>
+        <v>377256.1412977419</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>409801.3716303228</v>
+        <v>382047.4639778798</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>415349.2914025303</v>
+        <v>385324.7031037696</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>420940.7533090921</v>
+        <v>388625.5937265758</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>426574.6585516565</v>
+        <v>391949.3212200065</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>432249.8690401069</v>
+        <v>395295.0416646354</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>437965.2084731914</v>
+        <v>398661.8823570817</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>443719.4635012078</v>
+        <v>402048.9423641808</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>449511.3849681214</v>
+        <v>405455.2931204953</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>455339.6892301962</v>
+        <v>408879.9790673832</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>461203.0595479105</v>
+        <v>412322.0183317221</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>467100.147547658</v>
+        <v>415780.4034422943</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>473029.5747494519</v>
+        <v>422094.7027918034</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>478989.9341566203</v>
+        <v>428443.5983507248</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>484979.7919032277</v>
+        <v>434825.6586476494</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>490997.6889547636</v>
+        <v>441239.427604245</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>497042.1428574396</v>
+        <v>447683.4263947629</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>503111.6495312701</v>
+        <v>454156.1553548171</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>509204.6851019738</v>
+        <v>460656.0959349493</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>515319.7077666013</v>
+        <v>467181.7126944285</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>521455.1596877147</v>
+        <v>473731.4553307241</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>527609.4689108551</v>
+        <v>480303.7607400693</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>533781.0513000054</v>
+        <v>491098.125621152</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>539968.3124857297</v>
+        <v>501935.2736190683</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>546169.6498206678</v>
+        <v>512813.1636420244</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>552383.4543371062</v>
+        <v>523729.7622814602</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>558608.1127013933</v>
+        <v>534683.0475452146</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>564842.0091600352</v>
+        <v>545671.0125935043</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>571083.5274724339</v>
+        <v>556691.669468893</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>577331.0528253122</v>
+        <v>567743.0528112904</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>583582.9737240557</v>
+        <v>578823.2235489634</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>589837.6838563201</v>
+        <v>589930.2725563514</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>596093.5839234674</v>
+        <v>600458.8962553968</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>602349.0834355667</v>
+        <v>611008.0073650546</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>608602.602465911</v>
+        <v>621575.8436541976</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>614852.5733612347</v>
+        <v>632160.6831919809</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>621097.4424040435</v>
+        <v>642760.8475056917</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>627335.6714237105</v>
+        <v>653374.7046521995</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>633565.7393532586</v>
+        <v>664000.6721924947</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>639786.1437290026</v>
+        <v>674637.2200582679</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>645995.4021304923</v>
+        <v>685282.8732988872</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>652192.0535584649</v>
+        <v>695936.2146964517</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>658374.6597487987</v>
+        <v>706595.887235867</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>664541.8064207108</v>
+        <v>717260.5964160418</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>670692.104457739</v>
+        <v>727929.1123874709</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>676824.1910202928</v>
+        <v>738600.2719004678</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>682936.7305888331</v>
+        <v>749272.9800473785</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>689028.4159370089</v>
+        <v>759946.211781053</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>695097.9690343093</v>
+        <v>770619.0131908185</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>701144.141878057</v>
+        <v>781290.5025161648</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>707165.7172547947</v>
+        <v>791959.8708773369</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>713161.50943134</v>
+        <v>802626.3827010612</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>719130.3647760171</v>
+        <v>813289.3758187642</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>725071.1623107577</v>
+        <v>823948.2612138622</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>730982.8141949854</v>
+        <v>834602.5223941042</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>736864.2661423506</v>
+        <v>845251.7143644934</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>742714.4977715831</v>
+        <v>855895.4621761584</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>748532.5228928633</v>
+        <v>866533.4590265745</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>754317.3897312768</v>
+        <v>877165.4638869821</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>760068.1810890384</v>
+        <v>887791.2986335543</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>765784.0144482921</v>
+        <v>898410.8446600734</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>771464.0420164131</v>
+        <v>909024.038951459</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>777107.4507158066</v>
+        <v>919630.8695995931</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>782713.4621203088</v>
+        <v>930231.3707455286</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>788281.3323403466</v>
+        <v>940825.6169353314</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>793810.3518590735</v>
+        <v>951413.7168805796</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>799299.8453217498</v>
+        <v>961995.8066189009</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>804749.1712806604</v>
+        <v>972572.042074903</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>810157.7218979141</v>
+        <v>983142.5910274553</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>815524.9226084349</v>
+        <v>993707.6244954066</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>820850.2317455139</v>
+        <v>1004267.307560638</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>826133.1401312521</v>
+        <v>1014821.789654591</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_AB.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>18251.25748635034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>18272.59060420466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>18294.23026229852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>18316.18083566003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>18338.446760934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>18361.03253722774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>18383.94272696778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>18407.18195676769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>18430.7549183074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>18454.66636922379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>18478.92113401292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>18503.52410494404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>18528.48024298536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>18553.79457874184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>18579.47221340515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>18605.5183197159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>18631.93814293825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>18658.73700184712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>18685.92028972814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>18713.49347539039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>18741.46210419227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>18769.83179908039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>18798.60826164187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>18827.79727317015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>18857.4046957443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>18887.43647332226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>18917.89863284793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>18948.7972853724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>18980.13862718949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>19011.92894098564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>19044.17459700451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>19076.8820542263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>19110.05786156198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>19143.7086590627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>19177.84117914451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>19212.46224782843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>19247.57878599631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>19283.19781066244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>19319.32643626115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>19355.97187595072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>19393.14144293352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>19430.84255179282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>19469.0827198464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>19507.869568517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>19547.21082472005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>19587.11432226867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>19627.58800329629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>19668.63991969699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>19710.27823458386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>19752.51122376548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>19795.34727724087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>19838.79490071305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>19882.86271712132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>19927.55946819276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>19972.89401601294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>20018.8753446161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>20065.51256159513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>20112.81489973166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>20160.79171864606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>20209.45250646826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>20258.80688152914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>20308.86459407278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>20359.63552799026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>20411.12970257461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>20463.35727429789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>20516.32853860995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>20570.05393175979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>20624.54403263937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>20679.80956465049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>20735.86139759463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>20792.71054958649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>20850.36818899124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>20908.84563638589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>20968.15436654516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>21028.30601045207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>21089.31235733361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>21151.18535672206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>21213.93712054178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>21277.57992522256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>21342.12621383915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>21407.58859827801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>21473.97986143119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>21541.31295941804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>21609.60102383485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>21678.85736403337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>21749.09546942798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>21820.32901183247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>21892.57184782667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>21965.83802115346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>22040.1417651465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>22115.49750518952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>22191.91986120727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>22269.42365018896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>22348.02388874462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>22427.73579569499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>22508.57479469539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>22590.5565168944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>22673.69680362778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>22758.01170914839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>22843.51750339256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>22930.23067478396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>23018.16793307541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>23107.34621222926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>23197.78267333749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>23289.49470758193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>23382.49993923563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>23476.8162287061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>23572.46167562136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>23669.45462195974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>23767.81365522417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>23867.55761166223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>23968.7055795326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>24071.27690241935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>24175.29118259477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>24280.76828443214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>24387.72833786938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>24496.19174192506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>24606.17916826769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>24717.71156483984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>24830.81015953833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>24945.4964639519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>25061.79227715786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>25179.71968957913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>25299.30108690332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>25420.55915406549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>25543.51687929616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>25668.19755823653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>25794.62479812246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>25922.8225220395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>26052.81497325038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>26184.62671959763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>26318.28265798301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>26453.80801892607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>26591.22837120444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>26730.56962657754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>26871.85804459705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>27015.1202375061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>27160.38317523007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>27307.67419046179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>27457.02098384408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>27608.45162925251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>27761.99457918161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>27917.6786702377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>28075.53312874192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>28235.5875764465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>28397.87203636861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>28562.41693874483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>28729.25312711067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>28898.41186450919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>29069.92483983256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>29243.82417430151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>29420.14242808676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>29598.91260707751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>29780.16816980176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>29963.9430345035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>30150.27158638231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>30339.18868500055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>30530.72967186419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>30724.93037818291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>30921.82713281576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>31121.45677040872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>31323.8566397307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>31529.06461221503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>31737.11909071315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>31948.05901846818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>32161.92388831588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>32378.75375212089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>32598.58923045625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>32821.47152253497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>33047.4424164021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>33276.54429939653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>33508.82016889179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>33744.3136433256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>33983.06897352822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>34225.13105435976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>34470.54543666745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>34719.35833957366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>34971.61666310638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>35227.36800118362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>35486.66065496413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>35749.54364657713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>36016.06673324373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>36286.28042180353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>36560.23598366039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>36837.98547016129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>37119.58172842312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>37405.07841762249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>37694.530025764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>37987.99188694303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>38285.52019911955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>38587.17204241963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>38893.00539798249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>39203.07916737047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>39517.45319256046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>39836.18827653587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>40159.34620449797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>40486.98976571683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>40819.182776042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>41155.99010109359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>41497.47768015534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>41843.7125507913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>42194.76287420825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>42550.69796138672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>42911.58830000422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>43277.50558217352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>43648.52273302097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>44024.71394012911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>44406.15468386853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>44792.92176864474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>45185.09335508567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>45582.74899319631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>45985.96965650698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>46394.83777724217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>46809.43728253755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>47229.85363173241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>47656.17385476564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>48088.48659170316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>48526.88213342516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>48971.45246350121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>49422.29130128277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>49879.49414623984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>50343.15832357209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>50813.38303112148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>51290.26938761584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>51773.92048226997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>52264.4414257738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>52761.93940269344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>53266.52372531297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>53778.30588894278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>54297.39962872086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>54823.920977931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>55357.98832786266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>55899.7224892355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>56449.24675520993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>57006.686966005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>57572.17157514226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>58145.83171733347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>58727.80127802795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>59318.2169646336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>59917.21837942297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>60524.94809413466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>61141.5517262764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>61767.17801713424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>62401.97891148942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>63046.10963904067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>63699.72879752686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>64362.99843754108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>65036.08414902266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>65719.15514941028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>66412.38437343427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>67115.94856452095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>67830.02836777757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>68554.80842452019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>69290.47746830064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>70037.22842238354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>70795.25849861687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>71564.76929763224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>72345.96691030485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>73139.06202039393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>73944.27000827684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>74761.81105568152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>75591.91025131222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>76434.79769725338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>77290.70861602933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>78159.8834581814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>79042.56801021934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>79939.0135027878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>80849.47671887785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>81774.22010190216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>82713.51186343754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>83667.62609042667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>84636.84285161496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>85621.44830298584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>86621.73479194133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>87638.00095995914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>88670.55184344295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>89719.69897246416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>90785.76046707768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>91869.06113087627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>92969.93254143081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>94088.71313724495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>95225.74830083454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>96381.39043752351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>97555.99904952809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>98749.94080488331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>99963.58960074408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>101197.3266205762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>102451.5403847303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>103726.6267938748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>105022.9891647419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>106341.038257623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>107681.1922950293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>109043.8769709181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>110429.5254498605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>111838.5783555157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>113271.4837477559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>114728.6970877698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>116210.6811904581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>117717.9061634218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>119250.8493318276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>120809.9951484255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>122395.8350879838</v>
+        <v>1952.789333408346</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>124008.8675253972</v>
+        <v>3936.550948613783</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>125649.5975967179</v>
+        <v>5951.819019872233</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>127318.5370423538</v>
+        <v>7999.134737616318</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>129016.2040316794</v>
+        <v>10079.04615512657</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>130743.1229682996</v>
+        <v>12192.10801445265</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>132499.8242752154</v>
+        <v>14338.88155074149</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>134286.8441591417</v>
+        <v>16519.93427413138</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>136104.7243532385</v>
+        <v>18735.83972837708</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>137954.0118375273</v>
+        <v>20987.17722538473</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>139835.2585362829</v>
+        <v>23274.53155484689</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>141749.0209917044</v>
+        <v>25598.49266818397</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>143695.8600131978</v>
+        <v>27959.65533602314</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>145676.3403016263</v>
+        <v>30358.61877846942</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>147691.0300479151</v>
+        <v>32795.98626745229</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>149740.5005054359</v>
+        <v>35272.36470046929</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>151825.3255356327</v>
+        <v>37788.3641450828</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>153946.0811263983</v>
+        <v>40344.59735357259</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>156103.3448827596</v>
+        <v>42941.67924719788</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>158297.6954894828</v>
+        <v>45580.22636957189</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>160529.7121452742</v>
+        <v>48260.85630871757</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>162799.9739683102</v>
+        <v>50984.18708743298</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>165109.0593729091</v>
+        <v>53750.83652167212</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>167457.5454172255</v>
+        <v>56561.42154671764</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>169846.0071219341</v>
+        <v>59416.55751100808</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>172275.0167599559</v>
+        <v>62316.85743757067</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>174745.1431173685</v>
+        <v>65262.9312531027</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>177256.9507257441</v>
+        <v>68255.38498484596</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>179810.9990662582</v>
+        <v>71294.81992550446</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>182407.8417460222</v>
+        <v>74381.83176656617</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>185048.0256472009</v>
+        <v>77517.00970050534</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>187732.0900496005</v>
+        <v>80700.93549246514</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>190460.5657275254</v>
+        <v>83934.18252214605</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>193233.9740218361</v>
+        <v>87217.31479675618</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>196052.8258882629</v>
+        <v>90550.88593601692</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>198917.6209231679</v>
+        <v>93935.43813035452</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>201828.8463680769</v>
+        <v>97371.50107355112</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>204786.9760944484</v>
+        <v>100859.5908712779</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>207792.4695702795</v>
+        <v>104400.2089270763</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>210845.7708102896</v>
+        <v>107993.8408075043</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>213947.3073115686</v>
+        <v>111640.9550883193</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>217097.4889767096</v>
+        <v>115342.0021837146</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>220296.7070265922</v>
+        <v>119097.4131607829</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>223545.3329051126</v>
+        <v>122907.5985415227</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>226843.7171783016</v>
+        <v>126772.9470948619</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>230192.1884303897</v>
+        <v>130693.8246213045</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>233591.0521595204</v>
+        <v>134670.5727329602</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>237040.5896759185</v>
+        <v>138703.5076318388</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>240541.0570054491</v>
+        <v>142792.9188894376</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>244092.6838016004</v>
+        <v>146939.0682307571</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>247695.6722690294</v>
+        <v>151142.1883260095</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>251350.196101894</v>
+        <v>155402.4815933823</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>255056.3994402817</v>
+        <v>159720.1190163204</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>258814.3958481052</v>
+        <v>164095.238978878</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>262624.2673159002</v>
+        <v>168527.9461227604</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>267099.5690348133</v>
+        <v>173631.81597256</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>271634.9515217181</v>
+        <v>178801.5169093511</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>276230.4155229523</v>
+        <v>184037.0649203869</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>280885.9224073227</v>
+        <v>189338.4338358094</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>285601.393253175</v>
+        <v>194705.5542574598</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>290376.7079879841</v>
+        <v>200138.3125385466</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>295211.7045843272</v>
+        <v>205636.5498183593</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>300106.1783160153</v>
+        <v>211200.0611161471</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>305059.8810780569</v>
+        <v>216828.5944881952</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>310072.5207740102</v>
+        <v>222521.8502520359</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>315143.7607741207</v>
+        <v>228279.4802815879</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>320273.2194474921</v>
+        <v>234101.0873768837</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>325460.4697713346</v>
+        <v>239986.2247118619</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>330705.039020139</v>
+        <v>245934.3953635148</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>336006.4085373938</v>
+        <v>251945.0519254718</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>340414.4807061793</v>
+        <v>257068.0633228233</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>344867.8900095323</v>
+        <v>262242.0257195677</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>349366.0410599806</v>
+        <v>267466.3003985764</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>353908.2982776677</v>
+        <v>272740.2032940052</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>358493.9860232935</v>
+        <v>278063.0049828968</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>363122.3888074891</v>
+        <v>283433.930758112</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>367792.7515770826</v>
+        <v>288852.1607835802</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>372504.280078436</v>
+        <v>294316.8303325808</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>377256.1412977419</v>
+        <v>299827.030109481</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>382047.4639778798</v>
+        <v>305381.8066550634</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>385324.7031037696</v>
+        <v>309427.5267279205</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>388625.5937265758</v>
+        <v>313501.8310327973</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>391949.3212200065</v>
+        <v>317603.8043896527</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>395295.0416646354</v>
+        <v>321732.4960398872</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>398661.8823570817</v>
+        <v>325886.9200870801</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>402048.9423641808</v>
+        <v>330066.0559928642</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>405455.2931204953</v>
+        <v>334268.8491267727</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>408879.9790673832</v>
+        <v>338494.2113687384</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>412322.0183317221</v>
+        <v>342741.0217627939</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>415780.4034422943</v>
+        <v>347008.127220402</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>422094.7027918034</v>
+        <v>354134.9439817925</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>428443.5983507248</v>
+        <v>361299.9953418839</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>434825.6586476494</v>
+        <v>368501.6846557999</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>441239.427604245</v>
+        <v>375738.3842124285</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>447683.4263947629</v>
+        <v>383008.437146236</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>454156.1553548171</v>
+        <v>390310.1594123216</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>460656.0959349493</v>
+        <v>397641.8418204443</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>467181.7126944285</v>
+        <v>405001.7521236516</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>473731.4553307241</v>
+        <v>412388.1371570933</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>480303.7607400693</v>
+        <v>419799.2250225376</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>491098.125621152</v>
+        <v>431434.2978306849</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>501935.2736190683</v>
+        <v>443113.8589984321</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>512813.1636420244</v>
+        <v>454835.6417335415</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>523729.7622814602</v>
+        <v>466597.381637312</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>534683.0475452146</v>
+        <v>478396.8206347519</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>545671.0125935043</v>
+        <v>490231.7109218517</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>556691.669468893</v>
+        <v>502099.8189209187</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>567743.0528112904</v>
+        <v>513998.9292347442</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>578823.2235489634</v>
+        <v>525926.8485902692</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>589930.2725563514</v>
+        <v>537881.4097621809</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>600458.8962553968</v>
+        <v>549257.0474527335</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>611008.0073650546</v>
+        <v>560652.4093320038</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>621575.8436541976</v>
+        <v>572065.4650932846</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>632160.6831919809</v>
+        <v>583494.2220171342</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>642760.8475056917</v>
+        <v>594936.7284535042</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>653374.7046521995</v>
+        <v>606391.077227426</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>664000.6721924947</v>
+        <v>617855.4089570551</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>674637.2200582679</v>
+        <v>629327.9152723069</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>685282.8732988872</v>
+        <v>640806.8419216803</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>695936.2146964517</v>
+        <v>652290.4917541472</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>706595.887235867</v>
+        <v>663777.2275622271</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>717260.5964160418</v>
+        <v>675265.4747714817</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>727929.1123874709</v>
+        <v>686753.7239608071</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>738600.2719004678</v>
+        <v>698240.5331968718</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>749272.9800473785</v>
+        <v>709724.5301650916</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>759946.211781053</v>
+        <v>721204.414078468</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>770619.0131908185</v>
+        <v>732678.9573445545</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>781290.5025161648</v>
+        <v>744147.0069697828</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>791959.8708773369</v>
+        <v>755607.4856793466</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>802626.3827010612</v>
+        <v>767059.3927298723</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>813289.3758187642</v>
+        <v>778501.8043912349</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>823948.2612138622</v>
+        <v>789933.8740730986</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>834602.5223941042</v>
+        <v>801354.8320711723</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>845251.7143644934</v>
+        <v>812763.9849077208</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>855895.4621761584</v>
+        <v>824160.7142407335</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>866533.4590265745</v>
+        <v>835544.4753161991</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>877165.4638869821</v>
+        <v>846914.7949383962</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>887791.2986335543</v>
+        <v>858271.2689338492</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>898410.8446600734</v>
+        <v>869613.5590858196</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>909024.038951459</v>
+        <v>880941.3895178344</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>919630.8695995931</v>
+        <v>892254.5425068727</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>930231.3707455286</v>
+        <v>903552.8537095218</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>940825.6169353314</v>
+        <v>914836.206787614</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>951413.7168805796</v>
+        <v>926104.5274236699</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>961995.8066189009</v>
+        <v>937357.7767208819</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>972572.042074903</v>
+        <v>948595.9439873892</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>983142.5910274553</v>
+        <v>959819.0389102506</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>993707.6244954066</v>
+        <v>971027.0831307045</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1004267.307560638</v>
+        <v>982220.1012391638</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1014821.789654591</v>
+        <v>993398.1112157055</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_AB.xlsx
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>431434.2978306849</v>
+        <v>432885.0697202097</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>443113.8589984321</v>
+        <v>446023.4755036082</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>454835.6417335415</v>
+        <v>459212.0194237343</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>466597.381637312</v>
+        <v>472448.2850765451</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>478396.8206347519</v>
+        <v>485729.8670802101</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>490231.7109218517</v>
+        <v>499054.375568775</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>502099.8189209187</v>
+        <v>512419.4406915503</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>513998.9292347442</v>
+        <v>525822.7171072613</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>525926.8485902692</v>
+        <v>539261.8884618283</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>537881.4097621809</v>
+        <v>552734.6718383151</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>549257.0474527335</v>
+        <v>565562.9827916964</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>560652.4093320038</v>
+        <v>578417.459756285</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>572065.4650932846</v>
+        <v>591295.9862221478</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>583494.2220171342</v>
+        <v>604196.4921922461</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>594936.7284535042</v>
+        <v>617116.9580977663</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>606391.077227426</v>
+        <v>630055.4186166269</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>617855.4089570551</v>
+        <v>643009.9663813858</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>629327.9152723069</v>
+        <v>655978.7555620604</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>640806.8419216803</v>
+        <v>668960.0053085858</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>652290.4917541472</v>
+        <v>681952.0030367494</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>663777.2275622271</v>
+        <v>694953.1075405178</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>675265.4747714817</v>
+        <v>707961.7519126042</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>686753.7239608071</v>
+        <v>720976.4462540812</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>698240.5331968718</v>
+        <v>733995.7801526334</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>709724.5301650916</v>
+        <v>747018.4249078848</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>721204.414078468</v>
+        <v>760043.1354809916</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>732678.9573445545</v>
+        <v>773068.7521444299</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>744147.0069697828</v>
+        <v>786094.2018067047</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>755607.4856793466</v>
+        <v>799118.4989854943</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>767059.3927298723</v>
+        <v>812140.7464016241</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>778501.8043912349</v>
+        <v>825160.1351652655</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>789933.8740730986</v>
+        <v>838175.9445248597</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>801354.8320711723</v>
+        <v>851187.5411486166</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>812763.9849077208</v>
+        <v>864194.3779079535</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>824160.7142407335</v>
+        <v>877195.9921321145</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>835544.4753161991</v>
+        <v>890192.0033033415</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>846914.7949383962</v>
+        <v>903182.1101625571</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>858271.2689338492</v>
+        <v>916166.0871964858</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>869613.5590858196</v>
+        <v>929143.7804786447</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>880941.3895178344</v>
+        <v>942115.1028386605</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>892254.5425068727</v>
+        <v>955080.0283369797</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>903552.8537095218</v>
+        <v>968038.5860253117</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>914836.206787614</v>
+        <v>980990.8529770701</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>926104.5274236699</v>
+        <v>993936.9465767115</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>937357.7767208819</v>
+        <v>1006877.016062242</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>948595.9439873892</v>
+        <v>1019811.233321269</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>959819.0389102506</v>
+        <v>1032739.782947849</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>971027.0831307045</v>
+        <v>1045662.851574917</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>982220.1012391638</v>
+        <v>1058580.616505422</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>993398.1112157055</v>
+        <v>1071493.233674219</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_AB.xlsx
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1952.789333408346</v>
+        <v>1562.231466726676</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>3936.550948613783</v>
+        <v>3149.240758891025</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>5951.819019872233</v>
+        <v>4761.455215897783</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>7999.134737616318</v>
+        <v>6399.307790093049</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>10079.04615512657</v>
+        <v>8063.236924101251</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>12192.10801445265</v>
+        <v>9753.68641156211</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>14338.88155074149</v>
+        <v>11471.10524059318</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>16519.93427413138</v>
+        <v>13215.9474193051</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>18735.83972837708</v>
+        <v>14988.67178270165</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>20987.17722538473</v>
+        <v>16789.74178030778</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>23274.53155484689</v>
+        <v>18619.6252438775</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>25598.49266818397</v>
+        <v>20478.79413454716</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>27959.65533602314</v>
+        <v>22367.72426881849</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>30358.61877846942</v>
+        <v>24286.89502277552</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>32795.98626745229</v>
+        <v>26236.78901396181</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>35272.36470046929</v>
+        <v>28217.89176037541</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>37788.3641450828</v>
+        <v>30230.69131606622</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>40344.59735357259</v>
+        <v>32275.67788285805</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>42941.67924719788</v>
+        <v>34353.34339775828</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>45580.22636957189</v>
+        <v>36464.18109565748</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>48260.85630871757</v>
+        <v>38608.68504697403</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>50984.18708743298</v>
+        <v>40787.34966994636</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>53750.83652167212</v>
+        <v>43000.66921733767</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>56561.42154671764</v>
+        <v>45249.13723737408</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>59416.55751100808</v>
+        <v>47533.24600880643</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>62316.85743757067</v>
+        <v>49853.48595005651</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>65262.9312531027</v>
+        <v>52210.34500248212</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>68255.38498484596</v>
+        <v>54604.30798787673</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>71294.81992550446</v>
+        <v>57035.85594040353</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>74381.83176656617</v>
+        <v>59505.46541325291</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>77517.00970050534</v>
+        <v>62013.60776040423</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>80700.93549246514</v>
+        <v>64560.74839397207</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>83934.18252214605</v>
+        <v>67147.3460177168</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>87217.31479675618</v>
+        <v>69773.8518374049</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>90550.88593601692</v>
+        <v>72440.70874881349</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>93935.43813035452</v>
+        <v>75148.35050428357</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>97371.50107355112</v>
+        <v>77897.20085884085</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>100859.5908712779</v>
+        <v>80687.6726970223</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>104400.2089270763</v>
+        <v>83520.16714166098</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>107993.8408075043</v>
+        <v>86395.07264600335</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>111640.9550883193</v>
+        <v>89312.76407065538</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>115342.0021837146</v>
+        <v>92273.60174697166</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>119097.4131607829</v>
+        <v>95277.93052862627</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>122907.5985415227</v>
+        <v>98326.07883321807</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>126772.9470948619</v>
+        <v>101418.3576758894</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>130693.8246213045</v>
+        <v>104555.0596970436</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>134670.5727329602</v>
+        <v>107736.4581863681</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>138703.5076318388</v>
+        <v>110962.806105471</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>142792.9188894376</v>
+        <v>114234.33511155</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>146939.0682307571</v>
+        <v>117551.2545846056</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>151142.1883260095</v>
+        <v>120913.7506608076</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>155402.4815933823</v>
+        <v>124321.9852747057</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>159720.1190163204</v>
+        <v>127776.0952130563</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>164095.238978878</v>
+        <v>131276.1911831023</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>168527.9461227604</v>
+        <v>134822.3568982082</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>173631.81597256</v>
+        <v>138905.4527780479</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>178801.5169093511</v>
+        <v>143041.2135274808</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>184037.0649203869</v>
+        <v>147229.6519363095</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>189338.4338358094</v>
+        <v>151470.7470686474</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>194705.5542574598</v>
+        <v>155764.4434059678</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>200138.3125385466</v>
+        <v>160110.6500308372</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>205636.5498183593</v>
+        <v>164509.2398546874</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>211200.0611161471</v>
+        <v>168960.0488929176</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>216828.5944881952</v>
+        <v>173462.8755905561</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>222521.8502520359</v>
+        <v>178017.4802016286</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>228279.4802815879</v>
+        <v>182623.5842252702</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>234101.0873768837</v>
+        <v>187280.8699015069</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>239986.2247118619</v>
+        <v>191988.9797694895</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>245934.3953635148</v>
+        <v>196747.5162908118</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>251945.0519254718</v>
+        <v>201556.0415403774</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>257068.0633228233</v>
+        <v>205654.4506582586</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>262242.0257195677</v>
+        <v>209793.6205756541</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>267466.3003985764</v>
+        <v>213973.0403188611</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>272740.2032940052</v>
+        <v>218192.1626352042</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>278063.0049828968</v>
+        <v>222450.4039863175</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>283433.930758112</v>
+        <v>226747.1446064895</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>288852.1607835802</v>
+        <v>231081.7286268641</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>294316.8303325808</v>
+        <v>235453.4642660647</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>299827.030109481</v>
+        <v>239861.6240875848</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>305381.8066550634</v>
+        <v>244305.4453240507</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>309427.5267279205</v>
+        <v>247542.0213823364</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>313501.8310327973</v>
+        <v>250801.4648262378</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>317603.8043896527</v>
+        <v>254083.0435117222</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>321732.4960398872</v>
+        <v>257385.9968319098</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>325886.9200870801</v>
+        <v>260709.5360696641</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>330066.0559928642</v>
+        <v>264052.8447942914</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>334268.8491267727</v>
+        <v>267415.0793014182</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>338494.2113687384</v>
+        <v>270795.3690949908</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>342741.0217627939</v>
+        <v>274192.8174102352</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>347008.127220402</v>
+        <v>277606.5017763217</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>354134.9439817925</v>
+        <v>283307.9551854341</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>361299.9953418839</v>
+        <v>289039.9962735071</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>368501.6846557999</v>
+        <v>294801.3477246399</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>375738.3842124285</v>
+        <v>300590.7073699429</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>383008.437146236</v>
+        <v>306406.7497169889</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>390310.1594123216</v>
+        <v>312248.1275298574</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>397641.8418204443</v>
+        <v>318113.4734563555</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>405001.7521236516</v>
+        <v>324001.4016989213</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>412388.1371570933</v>
+        <v>329910.5097256748</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>419799.2250225376</v>
+        <v>335839.3800180302</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>432885.0697202097</v>
+        <v>351859.6762067491</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>446023.4755036082</v>
+        <v>367952.9128960276</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>459212.0194237343</v>
+        <v>384116.5541667915</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>472448.2850765451</v>
+        <v>400348.0852220349</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>485729.8670802101</v>
+        <v>416645.0180621215</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>499054.375568775</v>
+        <v>433004.8971705797</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>512419.4406915503</v>
+        <v>449425.3051955232</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>525822.7171072613</v>
+        <v>465903.8686113079</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>539261.8884618283</v>
+        <v>482438.2633446286</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>552734.6718383151</v>
+        <v>499026.2203486587</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>565562.9827916964</v>
+        <v>514847.7654637888</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>578417.459756285</v>
+        <v>530714.8940952768</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>591295.9862221478</v>
+        <v>546625.5831641678</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>604196.4921922461</v>
+        <v>562577.8809572249</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>617116.9580977663</v>
+        <v>578569.9119169221</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>630055.4186166269</v>
+        <v>594599.8812759762</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>643009.9663813858</v>
+        <v>610666.0795155464</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>655978.7555620604</v>
+        <v>626766.8866251045</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>668960.0053085858</v>
+        <v>642900.7761407595</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>681952.0030367494</v>
+        <v>659066.3189374893</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>694953.1075405178</v>
+        <v>675262.1867493393</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>707961.7519126042</v>
+        <v>691487.1553901108</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>720976.4462540812</v>
+        <v>707740.1076455261</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>733995.7801526334</v>
+        <v>724020.035806153</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>747018.4249078848</v>
+        <v>740326.0438087285</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>760043.1354809916</v>
+        <v>756657.3489517822</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>773068.7521444299</v>
+        <v>773013.2831497326</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>786094.2018067047</v>
+        <v>789393.2936879841</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>799118.4989854943</v>
+        <v>805796.9434399192</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>812140.7464016241</v>
+        <v>822223.9105052016</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>825160.1351652655</v>
+        <v>838673.9872275017</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>838175.9445248597</v>
+        <v>855147.0785486251</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>851187.5411486166</v>
+        <v>871643.1996552453</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>864194.3779079535</v>
+        <v>888162.4728739177</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>877195.9921321145</v>
+        <v>904705.1237700412</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>890192.0033033415</v>
+        <v>921271.476406802</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>903182.1101625571</v>
+        <v>937861.9477211658</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>916166.0871964858</v>
+        <v>954477.0409755436</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>929143.7804786447</v>
+        <v>971117.3382461244</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>942115.1028386605</v>
+        <v>987783.4919119548</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>955080.0283369797</v>
+        <v>1004476.215112791</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>968038.5860253117</v>
+        <v>1021196.27114867</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>980990.8529770701</v>
+        <v>1037944.461799973</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>993936.9465767115</v>
+        <v>1054721.614553673</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1006877.016062242</v>
+        <v>1071528.568729396</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1019811.233321269</v>
+        <v>1088366.160507993</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1032739.782947849</v>
+        <v>1105235.206875488</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1045662.851574917</v>
+        <v>1122136.488506451</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1058580.616505422</v>
+        <v>1139070.731623216</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1071493.233674219</v>
+        <v>1156038.588880617</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_AB.xlsx
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1562.231466726676</v>
+        <v>1952.789333408346</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>3149.240758891025</v>
+        <v>3936.550948613783</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>4761.455215897783</v>
+        <v>5951.819019872233</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>6399.307790093049</v>
+        <v>7999.134737616318</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>8063.236924101251</v>
+        <v>10079.04615512657</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>9753.68641156211</v>
+        <v>12192.10801445265</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>11471.10524059318</v>
+        <v>14338.88155074149</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>13215.9474193051</v>
+        <v>16519.93427413138</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>14988.67178270165</v>
+        <v>18735.83972837708</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>16789.74178030778</v>
+        <v>20987.17722538473</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>18619.6252438775</v>
+        <v>23274.53155484689</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>20478.79413454716</v>
+        <v>25598.49266818397</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>22367.72426881849</v>
+        <v>27959.65533602314</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>24286.89502277552</v>
+        <v>30358.61877846942</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>26236.78901396181</v>
+        <v>32795.98626745229</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>28217.89176037541</v>
+        <v>35272.36470046929</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>30230.69131606622</v>
+        <v>37788.3641450828</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>32275.67788285805</v>
+        <v>40344.59735357259</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>34353.34339775828</v>
+        <v>42941.67924719788</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>36464.18109565748</v>
+        <v>45580.22636957189</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>38608.68504697403</v>
+        <v>48260.85630871757</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>40787.34966994636</v>
+        <v>50984.18708743298</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>43000.66921733767</v>
+        <v>53750.83652167212</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>45249.13723737408</v>
+        <v>56561.42154671764</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>47533.24600880643</v>
+        <v>59416.55751100808</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>49853.48595005651</v>
+        <v>62316.85743757067</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>52210.34500248212</v>
+        <v>65262.9312531027</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>54604.30798787673</v>
+        <v>68255.38498484596</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>57035.85594040353</v>
+        <v>71294.81992550446</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>59505.46541325291</v>
+        <v>74381.83176656617</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>62013.60776040423</v>
+        <v>77517.00970050534</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>64560.74839397207</v>
+        <v>80700.93549246514</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>67147.3460177168</v>
+        <v>83934.18252214605</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>69773.8518374049</v>
+        <v>87217.31479675618</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>72440.70874881349</v>
+        <v>90550.88593601692</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>75148.35050428357</v>
+        <v>93935.43813035452</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>77897.20085884085</v>
+        <v>97371.50107355112</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>80687.6726970223</v>
+        <v>100859.5908712779</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>83520.16714166098</v>
+        <v>104400.2089270763</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>86395.07264600335</v>
+        <v>107993.8408075043</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>89312.76407065538</v>
+        <v>111640.9550883193</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>92273.60174697166</v>
+        <v>115342.0021837146</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>95277.93052862627</v>
+        <v>119097.4131607829</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>98326.07883321807</v>
+        <v>122907.5985415227</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>101418.3576758894</v>
+        <v>126772.9470948619</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>104555.0596970436</v>
+        <v>130693.8246213045</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>107736.4581863681</v>
+        <v>134670.5727329602</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>110962.806105471</v>
+        <v>138703.5076318388</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>114234.33511155</v>
+        <v>142792.9188894376</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>117551.2545846056</v>
+        <v>146939.0682307571</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>120913.7506608076</v>
+        <v>151142.1883260095</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>124321.9852747057</v>
+        <v>155402.4815933823</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>127776.0952130563</v>
+        <v>159720.1190163204</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>131276.1911831023</v>
+        <v>164095.238978878</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>134822.3568982082</v>
+        <v>168527.9461227604</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>138905.4527780479</v>
+        <v>173631.81597256</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>143041.2135274808</v>
+        <v>178801.5169093511</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>147229.6519363095</v>
+        <v>184037.0649203869</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>151470.7470686474</v>
+        <v>189338.4338358094</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>155764.4434059678</v>
+        <v>194705.5542574598</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>160110.6500308372</v>
+        <v>200138.3125385466</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>164509.2398546874</v>
+        <v>205636.5498183593</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>168960.0488929176</v>
+        <v>211200.0611161471</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>173462.8755905561</v>
+        <v>216828.5944881952</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>178017.4802016286</v>
+        <v>222521.8502520359</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>182623.5842252702</v>
+        <v>228279.4802815879</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>187280.8699015069</v>
+        <v>234101.0873768837</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>191988.9797694895</v>
+        <v>239986.2247118619</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>196747.5162908118</v>
+        <v>245934.3953635148</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>201556.0415403774</v>
+        <v>251945.0519254718</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>205654.4506582586</v>
+        <v>257068.0633228233</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>209793.6205756541</v>
+        <v>262242.0257195677</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>213973.0403188611</v>
+        <v>267466.3003985764</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>218192.1626352042</v>
+        <v>272740.2032940052</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>222450.4039863175</v>
+        <v>278063.0049828968</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>226747.1446064895</v>
+        <v>283433.930758112</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>231081.7286268641</v>
+        <v>288852.1607835802</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>235453.4642660647</v>
+        <v>294316.8303325808</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>239861.6240875848</v>
+        <v>299827.030109481</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>244305.4453240507</v>
+        <v>305381.8066550634</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>247542.0213823364</v>
+        <v>309427.5267279205</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>250801.4648262378</v>
+        <v>313501.8310327973</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>254083.0435117222</v>
+        <v>317603.8043896527</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>257385.9968319098</v>
+        <v>321732.4960398872</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>260709.5360696641</v>
+        <v>325886.9200870801</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>264052.8447942914</v>
+        <v>330066.0559928642</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>267415.0793014182</v>
+        <v>334268.8491267727</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>270795.3690949908</v>
+        <v>338494.2113687384</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>274192.8174102352</v>
+        <v>342741.0217627939</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>277606.5017763217</v>
+        <v>347008.127220402</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>283307.9551854341</v>
+        <v>354134.9439817925</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>289039.9962735071</v>
+        <v>361299.9953418839</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>294801.3477246399</v>
+        <v>368501.6846557999</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>300590.7073699429</v>
+        <v>375738.3842124285</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>306406.7497169889</v>
+        <v>383008.437146236</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>312248.1275298574</v>
+        <v>390310.1594123216</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>318113.4734563555</v>
+        <v>397641.8418204443</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>324001.4016989213</v>
+        <v>405001.7521236516</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>329910.5097256748</v>
+        <v>412388.1371570933</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>335839.3800180302</v>
+        <v>419799.2250225376</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>351859.6762067491</v>
+        <v>431434.2978306849</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>367952.9128960276</v>
+        <v>443113.8589984321</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>384116.5541667915</v>
+        <v>454835.6417335415</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>400348.0852220349</v>
+        <v>466597.381637312</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>416645.0180621215</v>
+        <v>478396.8206347519</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>433004.8971705797</v>
+        <v>490231.7109218517</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>449425.3051955232</v>
+        <v>502099.8189209187</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>465903.8686113079</v>
+        <v>513998.9292347442</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>482438.2633446286</v>
+        <v>525926.8485902692</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>499026.2203486587</v>
+        <v>537881.4097621809</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>514847.7654637888</v>
+        <v>549257.0474527335</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>530714.8940952768</v>
+        <v>560652.4093320038</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>546625.5831641678</v>
+        <v>572065.4650932846</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>562577.8809572249</v>
+        <v>583494.2220171342</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>578569.9119169221</v>
+        <v>594936.7284535042</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>594599.8812759762</v>
+        <v>606391.077227426</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>610666.0795155464</v>
+        <v>617855.4089570551</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>626766.8866251045</v>
+        <v>629327.9152723069</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>642900.7761407595</v>
+        <v>640806.8419216803</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>659066.3189374893</v>
+        <v>652290.4917541472</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>675262.1867493393</v>
+        <v>663777.2275622271</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>691487.1553901108</v>
+        <v>675265.4747714817</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>707740.1076455261</v>
+        <v>686753.7239608071</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>724020.035806153</v>
+        <v>698240.5331968718</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>740326.0438087285</v>
+        <v>709724.5301650916</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>756657.3489517822</v>
+        <v>721204.414078468</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>773013.2831497326</v>
+        <v>732678.9573445545</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>789393.2936879841</v>
+        <v>744147.0069697828</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>805796.9434399192</v>
+        <v>755607.4856793466</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>822223.9105052016</v>
+        <v>767059.3927298723</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>838673.9872275017</v>
+        <v>778501.8043912349</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>855147.0785486251</v>
+        <v>789933.8740730986</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>871643.1996552453</v>
+        <v>801354.8320711723</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>888162.4728739177</v>
+        <v>812763.9849077208</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>904705.1237700412</v>
+        <v>824160.7142407335</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>921271.476406802</v>
+        <v>835544.4753161991</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>937861.9477211658</v>
+        <v>846914.7949383962</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>954477.0409755436</v>
+        <v>858271.2689338492</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>971117.3382461244</v>
+        <v>869613.5590858196</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>987783.4919119548</v>
+        <v>880941.3895178344</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1004476.215112791</v>
+        <v>892254.5425068727</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1021196.27114867</v>
+        <v>903552.8537095218</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1037944.461799973</v>
+        <v>914836.206787614</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1054721.614553673</v>
+        <v>926104.5274236699</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1071528.568729396</v>
+        <v>937357.7767208819</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1088366.160507993</v>
+        <v>948595.9439873892</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1105235.206875488</v>
+        <v>959819.0389102506</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1122136.488506451</v>
+        <v>971027.0831307045</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1139070.731623216</v>
+        <v>982220.1012391638</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1156038.588880617</v>
+        <v>993398.1112157055</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_AB.xlsx
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1952.789333408346</v>
+        <v>1562.231466726676</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>3936.550948613783</v>
+        <v>3149.240758891025</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>5951.819019872233</v>
+        <v>4761.455215897783</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>7999.134737616318</v>
+        <v>6399.307790093049</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>10079.04615512657</v>
+        <v>8063.236924101251</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>12192.10801445265</v>
+        <v>9753.68641156211</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>14338.88155074149</v>
+        <v>11471.10524059318</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>16519.93427413138</v>
+        <v>13215.9474193051</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>18735.83972837708</v>
+        <v>14988.67178270165</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>20987.17722538473</v>
+        <v>16789.74178030778</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>23274.53155484689</v>
+        <v>18619.6252438775</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>25598.49266818397</v>
+        <v>20478.79413454716</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>27959.65533602314</v>
+        <v>22367.72426881849</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>30358.61877846942</v>
+        <v>24286.89502277552</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>32795.98626745229</v>
+        <v>26236.78901396181</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>35272.36470046929</v>
+        <v>28217.89176037541</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>37788.3641450828</v>
+        <v>30230.69131606622</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>40344.59735357259</v>
+        <v>32275.67788285805</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>42941.67924719788</v>
+        <v>34353.34339775828</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>45580.22636957189</v>
+        <v>36464.18109565748</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>48260.85630871757</v>
+        <v>38608.68504697403</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>50984.18708743298</v>
+        <v>40787.34966994636</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>53750.83652167212</v>
+        <v>43000.66921733767</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>56561.42154671764</v>
+        <v>45249.13723737408</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>59416.55751100808</v>
+        <v>47533.24600880643</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>62316.85743757067</v>
+        <v>49853.48595005651</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>65262.9312531027</v>
+        <v>52210.34500248212</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>68255.38498484596</v>
+        <v>54604.30798787673</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>71294.81992550446</v>
+        <v>57035.85594040353</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>74381.83176656617</v>
+        <v>59505.46541325291</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>77517.00970050534</v>
+        <v>62013.60776040423</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>80700.93549246514</v>
+        <v>64560.74839397207</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>83934.18252214605</v>
+        <v>67147.3460177168</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>87217.31479675618</v>
+        <v>69773.8518374049</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>90550.88593601692</v>
+        <v>72440.70874881349</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>93935.43813035452</v>
+        <v>75148.35050428357</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>97371.50107355112</v>
+        <v>77897.20085884085</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>100859.5908712779</v>
+        <v>80687.6726970223</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>104400.2089270763</v>
+        <v>83520.16714166098</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>107993.8408075043</v>
+        <v>86395.07264600335</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>111640.9550883193</v>
+        <v>89312.76407065538</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>115342.0021837146</v>
+        <v>92273.60174697166</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>119097.4131607829</v>
+        <v>95277.93052862627</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>122907.5985415227</v>
+        <v>98326.07883321807</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>126772.9470948619</v>
+        <v>101418.3576758894</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>130693.8246213045</v>
+        <v>104555.0596970436</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>134670.5727329602</v>
+        <v>107736.4581863681</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>138703.5076318388</v>
+        <v>110962.806105471</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>142792.9188894376</v>
+        <v>114234.33511155</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>146939.0682307571</v>
+        <v>117551.2545846056</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>151142.1883260095</v>
+        <v>120913.7506608076</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>155402.4815933823</v>
+        <v>124321.9852747057</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>159720.1190163204</v>
+        <v>127776.0952130563</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>164095.238978878</v>
+        <v>131276.1911831023</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>168527.9461227604</v>
+        <v>134822.3568982082</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>173631.81597256</v>
+        <v>138905.4527780479</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>178801.5169093511</v>
+        <v>143041.2135274808</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>184037.0649203869</v>
+        <v>147229.6519363095</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>189338.4338358094</v>
+        <v>151470.7470686474</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>194705.5542574598</v>
+        <v>155764.4434059678</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>200138.3125385466</v>
+        <v>160110.6500308372</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>205636.5498183593</v>
+        <v>164509.2398546874</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>211200.0611161471</v>
+        <v>168960.0488929176</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>216828.5944881952</v>
+        <v>173462.8755905561</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>222521.8502520359</v>
+        <v>178017.4802016286</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>228279.4802815879</v>
+        <v>182623.5842252702</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>234101.0873768837</v>
+        <v>187280.8699015069</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>239986.2247118619</v>
+        <v>191988.9797694895</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>245934.3953635148</v>
+        <v>196747.5162908118</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>251945.0519254718</v>
+        <v>201556.0415403774</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>257068.0633228233</v>
+        <v>205654.4506582586</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>262242.0257195677</v>
+        <v>209793.6205756541</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>267466.3003985764</v>
+        <v>213973.0403188611</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>272740.2032940052</v>
+        <v>218192.1626352042</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>278063.0049828968</v>
+        <v>222450.4039863175</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>283433.930758112</v>
+        <v>226747.1446064895</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>288852.1607835802</v>
+        <v>231081.7286268641</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>294316.8303325808</v>
+        <v>235453.4642660647</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>299827.030109481</v>
+        <v>239861.6240875848</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>305381.8066550634</v>
+        <v>244305.4453240507</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>309427.5267279205</v>
+        <v>247542.0213823364</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>313501.8310327973</v>
+        <v>250801.4648262378</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>317603.8043896527</v>
+        <v>254083.0435117222</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>321732.4960398872</v>
+        <v>257385.9968319098</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>325886.9200870801</v>
+        <v>260709.5360696641</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>330066.0559928642</v>
+        <v>264052.8447942914</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>334268.8491267727</v>
+        <v>267415.0793014182</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>338494.2113687384</v>
+        <v>270795.3690949908</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>342741.0217627939</v>
+        <v>274192.8174102352</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>347008.127220402</v>
+        <v>277606.5017763217</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>354134.9439817925</v>
+        <v>283307.9551854341</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>361299.9953418839</v>
+        <v>289039.9962735071</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>368501.6846557999</v>
+        <v>294801.3477246399</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>375738.3842124285</v>
+        <v>300590.7073699429</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>383008.437146236</v>
+        <v>306406.7497169889</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>390310.1594123216</v>
+        <v>312248.1275298574</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>397641.8418204443</v>
+        <v>318113.4734563555</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>405001.7521236516</v>
+        <v>324001.4016989213</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>412388.1371570933</v>
+        <v>329910.5097256748</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>419799.2250225376</v>
+        <v>335839.3800180302</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>431434.2978306849</v>
+        <v>351859.6762067491</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>443113.8589984321</v>
+        <v>367952.9128960276</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>454835.6417335415</v>
+        <v>384116.5541667915</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>466597.381637312</v>
+        <v>400348.0852220349</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>478396.8206347519</v>
+        <v>416645.0180621215</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>490231.7109218517</v>
+        <v>433004.8971705797</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>502099.8189209187</v>
+        <v>449425.3051955232</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>513998.9292347442</v>
+        <v>465903.8686113079</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>525926.8485902692</v>
+        <v>482438.2633446286</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>537881.4097621809</v>
+        <v>499026.2203486587</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>549257.0474527335</v>
+        <v>514847.7654637888</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>560652.4093320038</v>
+        <v>530714.8940952768</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>572065.4650932846</v>
+        <v>546625.5831641678</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>583494.2220171342</v>
+        <v>562577.8809572249</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>594936.7284535042</v>
+        <v>578569.9119169221</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>606391.077227426</v>
+        <v>594599.8812759762</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>617855.4089570551</v>
+        <v>610666.0795155464</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>629327.9152723069</v>
+        <v>626766.8866251045</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>640806.8419216803</v>
+        <v>642900.7761407595</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>652290.4917541472</v>
+        <v>659066.3189374893</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>663777.2275622271</v>
+        <v>675262.1867493393</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>675265.4747714817</v>
+        <v>691487.1553901108</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>686753.7239608071</v>
+        <v>707740.1076455261</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>698240.5331968718</v>
+        <v>724020.035806153</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>709724.5301650916</v>
+        <v>740326.0438087285</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>721204.414078468</v>
+        <v>756657.3489517822</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>732678.9573445545</v>
+        <v>773013.2831497326</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>744147.0069697828</v>
+        <v>789393.2936879841</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>755607.4856793466</v>
+        <v>805796.9434399192</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>767059.3927298723</v>
+        <v>822223.9105052016</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>778501.8043912349</v>
+        <v>838673.9872275017</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>789933.8740730986</v>
+        <v>855147.0785486251</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>801354.8320711723</v>
+        <v>871643.1996552453</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>812763.9849077208</v>
+        <v>888162.4728739177</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>824160.7142407335</v>
+        <v>904705.1237700412</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>835544.4753161991</v>
+        <v>921271.476406802</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>846914.7949383962</v>
+        <v>937861.9477211658</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>858271.2689338492</v>
+        <v>954477.0409755436</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>869613.5590858196</v>
+        <v>971117.3382461244</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>880941.3895178344</v>
+        <v>987783.4919119548</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>892254.5425068727</v>
+        <v>1004476.215112791</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>903552.8537095218</v>
+        <v>1021196.27114867</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>914836.206787614</v>
+        <v>1037944.461799973</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>926104.5274236699</v>
+        <v>1054721.614553673</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>937357.7767208819</v>
+        <v>1071528.568729396</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>948595.9439873892</v>
+        <v>1088366.160507993</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>959819.0389102506</v>
+        <v>1105235.206875488</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>971027.0831307045</v>
+        <v>1122136.488506451</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>982220.1012391638</v>
+        <v>1139070.731623216</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>993398.1112157055</v>
+        <v>1156038.588880617</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_AB.xlsx
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1562.231466726676</v>
+        <v>1562.231466733744</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>3149.240758891025</v>
+        <v>3149.240758904888</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>4761.455215897783</v>
+        <v>4761.455215918182</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>6399.307790093049</v>
+        <v>6399.307790119704</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>8063.236924101251</v>
+        <v>8063.236924133869</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>9753.68641156211</v>
+        <v>9753.686411600433</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>11471.10524059318</v>
+        <v>11471.1052406369</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>13215.9474193051</v>
+        <v>13215.94741935389</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>14988.67178270165</v>
+        <v>14988.67178275522</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>16789.74178030778</v>
+        <v>16789.74178036587</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>18619.6252438775</v>
+        <v>18619.62524393976</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>20478.79413454716</v>
+        <v>20478.79413461326</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>22367.72426881849</v>
+        <v>22367.72426888813</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>24286.89502277552</v>
+        <v>24286.89502284833</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>26236.78901396181</v>
+        <v>26236.7890140375</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>28217.89176037541</v>
+        <v>28217.89176045362</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>30230.69131606622</v>
+        <v>30230.69131614656</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>32275.67788285805</v>
+        <v>32275.67788294021</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>34353.34339775828</v>
+        <v>34353.34339784191</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>36464.18109565748</v>
+        <v>36464.18109574218</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>38608.68504697403</v>
+        <v>38608.68504705941</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>40787.34966994636</v>
+        <v>40787.34967003207</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>43000.66921733767</v>
+        <v>43000.66921742335</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>45249.13723737408</v>
+        <v>45249.13723745929</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>47533.24600880643</v>
+        <v>47533.24600889081</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>49853.48595005651</v>
+        <v>49853.48595013965</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>52210.34500248212</v>
+        <v>52210.34500256363</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>54604.30798787673</v>
+        <v>54604.30798795614</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>57035.85594040353</v>
+        <v>57035.85594048043</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>59505.46541325291</v>
+        <v>59505.46541332697</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>62013.60776040423</v>
+        <v>62013.60776047494</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>64560.74839397207</v>
+        <v>64560.74839403899</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>67147.3460177168</v>
+        <v>67147.34601777955</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>69773.8518374049</v>
+        <v>69773.85183746301</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>72440.70874881349</v>
+        <v>72440.70874886651</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>75148.35050428357</v>
+        <v>75148.35050433109</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>77897.20085884085</v>
+        <v>77897.20085888234</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>80687.6726970223</v>
+        <v>80687.67269705742</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>83520.16714166098</v>
+        <v>83520.16714168918</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>86395.07264600335</v>
+        <v>86395.07264602421</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>89312.76407065538</v>
+        <v>89312.76407066839</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>92273.60174697166</v>
+        <v>92273.60174697643</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>95277.93052862627</v>
+        <v>95277.9305286223</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>98326.07883321807</v>
+        <v>98326.07883320488</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>101418.3576758894</v>
+        <v>101418.3576758666</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>104555.0596970436</v>
+        <v>104555.0596970107</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>107736.4581863681</v>
+        <v>107736.4581863246</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>110962.806105471</v>
+        <v>110962.8061054164</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>114234.33511155</v>
+        <v>114234.3351114839</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>117551.2545846056</v>
+        <v>117551.2545845276</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>120913.7506608076</v>
+        <v>120913.7506607171</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>124321.9852747057</v>
+        <v>124321.9852746025</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>127776.0952130563</v>
+        <v>127776.0952129397</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>131276.1911831023</v>
+        <v>131276.191182972</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>134822.3568982082</v>
+        <v>134822.3568980637</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>138905.4527780479</v>
+        <v>138905.4527778852</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>143041.2135274808</v>
+        <v>143041.2135272993</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>147229.6519363095</v>
+        <v>147229.6519361088</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>151470.7470686474</v>
+        <v>151470.747068427</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>155764.4434059678</v>
+        <v>155764.443405727</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>160110.6500308372</v>
+        <v>160110.6500305755</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>164509.2398546874</v>
+        <v>164509.2398544044</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>168960.0488929176</v>
+        <v>168960.0488926127</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>173462.8755905561</v>
+        <v>173462.8755902287</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>178017.4802016286</v>
+        <v>178017.4802012785</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>182623.5842252702</v>
+        <v>182623.5842248968</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>187280.8699015069</v>
+        <v>187280.8699011098</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>191988.9797694895</v>
+        <v>191988.9797690681</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>196747.5162908118</v>
+        <v>196747.5162903658</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>201556.0415403774</v>
+        <v>201556.0415399065</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>205654.4506582586</v>
+        <v>205654.4506577696</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>209793.6205756541</v>
+        <v>209793.6205751469</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>213973.0403188611</v>
+        <v>213973.0403183356</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>218192.1626352042</v>
+        <v>218192.16263466</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>222450.4039863175</v>
+        <v>222450.4039857546</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>226747.1446064895</v>
+        <v>226747.1446059078</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>231081.7286268641</v>
+        <v>231081.7286262635</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>235453.4642660647</v>
+        <v>235453.4642654452</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>239861.6240875848</v>
+        <v>239861.6240869462</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>244305.4453240507</v>
+        <v>244305.4453233933</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>247542.0213823364</v>
+        <v>247542.0213816728</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>250801.4648262378</v>
+        <v>250801.4648255683</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>254083.0435117222</v>
+        <v>254083.0435110468</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>257385.9968319098</v>
+        <v>257385.9968312288</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>260709.5360696641</v>
+        <v>260709.5360689777</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>264052.8447942914</v>
+        <v>264052.8447935997</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>267415.0793014182</v>
+        <v>267415.0793007214</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>270795.3690949908</v>
+        <v>270795.3690942891</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>274192.8174102352</v>
+        <v>274192.8174095288</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>277606.5017763217</v>
+        <v>277606.5017756107</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>283307.9551854341</v>
+        <v>283307.9551846961</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>289039.9962735071</v>
+        <v>289039.9962727421</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>294801.3477246399</v>
+        <v>294801.3477238484</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>300590.7073699429</v>
+        <v>300590.707369125</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>306406.7497169889</v>
+        <v>306406.7497161452</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>312248.1275298574</v>
+        <v>312248.1275289883</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>318113.4734563555</v>
+        <v>318113.4734554616</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>324001.4016989213</v>
+        <v>324001.4016980032</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>329910.5097256748</v>
+        <v>329910.5097247328</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>335839.3800180302</v>
+        <v>335839.3800170651</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>351859.6762067491</v>
+        <v>351859.6762056857</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>367952.9128960276</v>
+        <v>367952.9128948707</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>384116.5541667915</v>
+        <v>384116.5541655458</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>400348.0852220349</v>
+        <v>400348.0852207058</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>416645.0180621215</v>
+        <v>416645.0180607152</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>433004.8971705797</v>
+        <v>433004.8971691022</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>449425.3051955232</v>
+        <v>449425.3051939815</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>465903.8686113079</v>
+        <v>465903.8686097096</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>482438.2633446286</v>
+        <v>482438.2633429815</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>499026.2203486587</v>
+        <v>499026.2203469716</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>514847.7654637888</v>
+        <v>514847.7654620726</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>530714.8940952768</v>
+        <v>530714.8940935406</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>546625.5831641678</v>
+        <v>546625.5831624209</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>562577.8809572249</v>
+        <v>562577.8809554775</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>578569.9119169221</v>
+        <v>578569.9119151859</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>594599.8812759762</v>
+        <v>594599.8812742626</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>610666.0795155464</v>
+        <v>610666.0795138676</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>626766.8866251045</v>
+        <v>626766.8866234734</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>642900.7761407595</v>
+        <v>642900.7761391896</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>659066.3189374893</v>
+        <v>659066.3189359943</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>675262.1867493393</v>
+        <v>675262.1867479342</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>691487.1553901108</v>
+        <v>691487.1553888111</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>707740.1076455261</v>
+        <v>707740.1076443477</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>724020.035806153</v>
+        <v>724020.0358051122</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>740326.0438087285</v>
+        <v>740326.0438078434</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>756657.3489517822</v>
+        <v>756657.3489510699</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>773013.2831497326</v>
+        <v>773013.2831492117</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>789393.2936879841</v>
+        <v>789393.2936876739</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>805796.9434399192</v>
+        <v>805796.9434398387</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>822223.9105052016</v>
+        <v>822223.9105053702</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>838673.9872275017</v>
+        <v>838673.9872279406</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>855147.0785486251</v>
+        <v>855147.0785493552</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>871643.1996552453</v>
+        <v>871643.1996562877</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>888162.4728739177</v>
+        <v>888162.4728752928</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>904705.1237700412</v>
+        <v>904705.1237717717</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>921271.476406802</v>
+        <v>921271.4764089091</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>937861.9477211658</v>
+        <v>937861.9477236713</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>954477.0409755436</v>
+        <v>954477.0409784695</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>971117.3382461244</v>
+        <v>971117.338249493</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>987783.4919119548</v>
+        <v>987783.4919157873</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1004476.215112791</v>
+        <v>1004476.215117109</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1021196.27114867</v>
+        <v>1021196.271153494</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1037944.461799973</v>
+        <v>1037944.461805324</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1054721.614553673</v>
+        <v>1054721.614559571</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1071528.568729396</v>
+        <v>1071528.568735859</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1088366.160507993</v>
+        <v>1088366.160515041</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1105235.206875488</v>
+        <v>1105235.206883137</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1122136.488506451</v>
+        <v>1122136.488514718</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1139070.731623216</v>
+        <v>1139070.731632116</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1156038.588880617</v>
+        <v>1156038.588890165</v>
       </c>
     </row>
   </sheetData>
